--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vtn-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vtn-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Vtn</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H2">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I2">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J2">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N2">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O2">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P2">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q2">
-        <v>24.516827539595</v>
+        <v>20.39682828993833</v>
       </c>
       <c r="R2">
-        <v>220.651447856355</v>
+        <v>183.571454609445</v>
       </c>
       <c r="S2">
-        <v>0.1287927870266313</v>
+        <v>0.1187364694898502</v>
       </c>
       <c r="T2">
-        <v>0.1287927870266313</v>
+        <v>0.1187364694898502</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H3">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I3">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J3">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P3">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q3">
-        <v>10.215578575104</v>
+        <v>9.191974545152</v>
       </c>
       <c r="R3">
-        <v>91.94020717593601</v>
+        <v>82.72777090636799</v>
       </c>
       <c r="S3">
-        <v>0.05366488929500871</v>
+        <v>0.05350942752556848</v>
       </c>
       <c r="T3">
-        <v>0.05366488929500874</v>
+        <v>0.05350942752556848</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H4">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I4">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J4">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N4">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O4">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P4">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q4">
-        <v>0.8504018847670001</v>
+        <v>1.897058864407</v>
       </c>
       <c r="R4">
-        <v>7.653616962903</v>
+        <v>17.073529779663</v>
       </c>
       <c r="S4">
-        <v>0.004467365471937864</v>
+        <v>0.01104338717629086</v>
       </c>
       <c r="T4">
-        <v>0.004467365471937866</v>
+        <v>0.01104338717629086</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H5">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I5">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J5">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N5">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O5">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P5">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q5">
-        <v>0.9854002832650001</v>
+        <v>1.231189275145667</v>
       </c>
       <c r="R5">
-        <v>8.868602549385001</v>
+        <v>11.080703476311</v>
       </c>
       <c r="S5">
-        <v>0.005176544502487769</v>
+        <v>0.007167147054754472</v>
       </c>
       <c r="T5">
-        <v>0.005176544502487772</v>
+        <v>0.007167147054754472</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H6">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I6">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J6">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N6">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q6">
-        <v>0.796927465566</v>
+        <v>0.9326699646086667</v>
       </c>
       <c r="R6">
-        <v>7.172347190094</v>
+        <v>8.394029681477999</v>
       </c>
       <c r="S6">
-        <v>0.004186451496734327</v>
+        <v>0.005429370548335945</v>
       </c>
       <c r="T6">
-        <v>0.004186451496734328</v>
+        <v>0.005429370548335945</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>30.851089</v>
       </c>
       <c r="I7">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J7">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N7">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O7">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P7">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q7">
-        <v>67.97706668917945</v>
+        <v>62.85139820474388</v>
       </c>
       <c r="R7">
-        <v>611.793600202615</v>
+        <v>565.662583842695</v>
       </c>
       <c r="S7">
-        <v>0.3570998677808223</v>
+        <v>0.3658781168939556</v>
       </c>
       <c r="T7">
-        <v>0.3570998677808224</v>
+        <v>0.3658781168939556</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>30.851089</v>
       </c>
       <c r="I8">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J8">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P8">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q8">
         <v>28.32442594568533</v>
@@ -948,10 +948,10 @@
         <v>254.919833511168</v>
       </c>
       <c r="S8">
-        <v>0.1487950165078537</v>
+        <v>0.1648855542298413</v>
       </c>
       <c r="T8">
-        <v>0.1487950165078537</v>
+        <v>0.1648855542298413</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>30.851089</v>
       </c>
       <c r="I9">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J9">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N9">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O9">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P9">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q9">
-        <v>2.357883602193222</v>
+        <v>5.845654060023667</v>
       </c>
       <c r="R9">
-        <v>21.220952419739</v>
+        <v>52.610886540213</v>
       </c>
       <c r="S9">
-        <v>0.01238652921632757</v>
+        <v>0.03402942433400843</v>
       </c>
       <c r="T9">
-        <v>0.01238652921632757</v>
+        <v>0.03402942433400843</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>30.851089</v>
       </c>
       <c r="I10">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J10">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N10">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O10">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P10">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q10">
-        <v>2.732189581333889</v>
+        <v>3.793823544406778</v>
       </c>
       <c r="R10">
-        <v>24.589706232005</v>
+        <v>34.144411899661</v>
       </c>
       <c r="S10">
-        <v>0.01435284847914418</v>
+        <v>0.02208506181093573</v>
       </c>
       <c r="T10">
-        <v>0.01435284847914419</v>
+        <v>0.02208506181093573</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>30.851089</v>
       </c>
       <c r="I11">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J11">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N11">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q11">
-        <v>2.209616696358</v>
+        <v>2.873957191086445</v>
       </c>
       <c r="R11">
-        <v>19.886550267222</v>
+        <v>25.865614719778</v>
       </c>
       <c r="S11">
-        <v>0.0116076475280058</v>
+        <v>0.01673022518422166</v>
       </c>
       <c r="T11">
-        <v>0.0116076475280058</v>
+        <v>0.01673022518422166</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.902803666666666</v>
+        <v>3.355061</v>
       </c>
       <c r="H12">
-        <v>14.708411</v>
+        <v>10.065183</v>
       </c>
       <c r="I12">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="J12">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N12">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O12">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P12">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q12">
-        <v>32.40840656998722</v>
+        <v>20.50529965851833</v>
       </c>
       <c r="R12">
-        <v>291.675659129885</v>
+        <v>184.5476969266649</v>
       </c>
       <c r="S12">
-        <v>0.1702491482023858</v>
+        <v>0.1193679160639371</v>
       </c>
       <c r="T12">
-        <v>0.1702491482023858</v>
+        <v>0.1193679160639371</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.902803666666666</v>
+        <v>3.355061</v>
       </c>
       <c r="H13">
-        <v>14.708411</v>
+        <v>10.065183</v>
       </c>
       <c r="I13">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="J13">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>8.262912</v>
       </c>
       <c r="O13">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P13">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q13">
-        <v>13.50381175031466</v>
+        <v>9.240857932543998</v>
       </c>
       <c r="R13">
-        <v>121.534305752832</v>
+        <v>83.167721392896</v>
       </c>
       <c r="S13">
-        <v>0.07093876840293373</v>
+        <v>0.05379399337831402</v>
       </c>
       <c r="T13">
-        <v>0.07093876840293376</v>
+        <v>0.05379399337831402</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.902803666666666</v>
+        <v>3.355061</v>
       </c>
       <c r="H14">
-        <v>14.708411</v>
+        <v>10.065183</v>
       </c>
       <c r="I14">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="J14">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N14">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O14">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P14">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q14">
-        <v>1.124132801640111</v>
+        <v>1.907147519779</v>
       </c>
       <c r="R14">
-        <v>10.117195214761</v>
+        <v>17.164327678011</v>
       </c>
       <c r="S14">
-        <v>0.005905339762147578</v>
+        <v>0.01110211647006846</v>
       </c>
       <c r="T14">
-        <v>0.005905339762147579</v>
+        <v>0.01110211647006846</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.902803666666666</v>
+        <v>3.355061</v>
       </c>
       <c r="H15">
-        <v>14.708411</v>
+        <v>10.065183</v>
       </c>
       <c r="I15">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="J15">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N15">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O15">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P15">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q15">
-        <v>1.302585049499444</v>
+        <v>1.237736802229667</v>
       </c>
       <c r="R15">
-        <v>11.723265445495</v>
+        <v>11.139631220067</v>
       </c>
       <c r="S15">
-        <v>0.006842792306358378</v>
+        <v>0.007205262306733469</v>
       </c>
       <c r="T15">
-        <v>0.00684279230635838</v>
+        <v>0.007205262306733469</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.355061</v>
+      </c>
+      <c r="H16">
+        <v>10.065183</v>
+      </c>
+      <c r="I16">
+        <v>0.196927532435664</v>
+      </c>
+      <c r="J16">
+        <v>0.196927532435664</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2794673333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.838402</v>
+      </c>
+      <c r="O16">
+        <v>0.02771701929690382</v>
+      </c>
+      <c r="P16">
+        <v>0.02771701929690381</v>
+      </c>
+      <c r="Q16">
+        <v>0.9376299508406666</v>
+      </c>
+      <c r="R16">
+        <v>8.438669557566</v>
+      </c>
+      <c r="S16">
+        <v>0.005458244216610952</v>
+      </c>
+      <c r="T16">
+        <v>0.005458244216610952</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.18289</v>
+      </c>
+      <c r="I17">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J17">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.111751666666666</v>
+      </c>
+      <c r="N17">
+        <v>18.335255</v>
+      </c>
+      <c r="O17">
+        <v>0.6061514841909396</v>
+      </c>
+      <c r="P17">
+        <v>0.6061514841909394</v>
+      </c>
+      <c r="Q17">
+        <v>0.3725927541055555</v>
+      </c>
+      <c r="R17">
+        <v>3.353334786949999</v>
+      </c>
+      <c r="S17">
+        <v>0.002168981743196668</v>
+      </c>
+      <c r="T17">
+        <v>0.002168981743196667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.18289</v>
+      </c>
+      <c r="I18">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J18">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.754304</v>
+      </c>
+      <c r="N18">
+        <v>8.262912</v>
+      </c>
+      <c r="O18">
+        <v>0.2731664420559804</v>
+      </c>
+      <c r="P18">
+        <v>0.2731664420559804</v>
+      </c>
+      <c r="Q18">
+        <v>0.1679115528533333</v>
+      </c>
+      <c r="R18">
+        <v>1.51120397568</v>
+      </c>
+      <c r="S18">
+        <v>0.0009774669222566397</v>
+      </c>
+      <c r="T18">
+        <v>0.0009774669222566395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>4.902803666666666</v>
-      </c>
-      <c r="H16">
-        <v>14.708411</v>
-      </c>
-      <c r="I16">
-        <v>0.2594700526950464</v>
-      </c>
-      <c r="J16">
-        <v>0.2594700526950464</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.214866</v>
-      </c>
-      <c r="N16">
-        <v>0.644598</v>
-      </c>
-      <c r="O16">
-        <v>0.02132810304596101</v>
-      </c>
-      <c r="P16">
-        <v>0.02132810304596101</v>
-      </c>
-      <c r="Q16">
-        <v>1.053445812642</v>
-      </c>
-      <c r="R16">
-        <v>9.481012313778001</v>
-      </c>
-      <c r="S16">
-        <v>0.005534004021220882</v>
-      </c>
-      <c r="T16">
-        <v>0.005534004021220883</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.18289</v>
+      </c>
+      <c r="I19">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J19">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.568439</v>
+      </c>
+      <c r="N19">
+        <v>1.705317</v>
+      </c>
+      <c r="O19">
+        <v>0.0563766596410053</v>
+      </c>
+      <c r="P19">
+        <v>0.05637665964100529</v>
+      </c>
+      <c r="Q19">
+        <v>0.03465393623666667</v>
+      </c>
+      <c r="R19">
+        <v>0.31188542613</v>
+      </c>
+      <c r="S19">
+        <v>0.0002017316606375484</v>
+      </c>
+      <c r="T19">
+        <v>0.0002017316606375484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.18289</v>
+      </c>
+      <c r="I20">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J20">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.3689163333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.106749</v>
+      </c>
+      <c r="O20">
+        <v>0.036588394815171</v>
+      </c>
+      <c r="P20">
+        <v>0.036588394815171</v>
+      </c>
+      <c r="Q20">
+        <v>0.02249036940111111</v>
+      </c>
+      <c r="R20">
+        <v>0.20241332461</v>
+      </c>
+      <c r="S20">
+        <v>0.0001309236427473285</v>
+      </c>
+      <c r="T20">
+        <v>0.0001309236427473285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.18289</v>
+      </c>
+      <c r="I21">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J21">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.2794673333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.838402</v>
+      </c>
+      <c r="O21">
+        <v>0.02771701929690382</v>
+      </c>
+      <c r="P21">
+        <v>0.02771701929690381</v>
+      </c>
+      <c r="Q21">
+        <v>0.01703726019777778</v>
+      </c>
+      <c r="R21">
+        <v>0.15333534178</v>
+      </c>
+      <c r="S21">
+        <v>9.9179347735255E-05</v>
+      </c>
+      <c r="T21">
+        <v>9.917934773525497E-05</v>
       </c>
     </row>
   </sheetData>
